--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_95.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_95.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,43 +488,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
+          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(53.46, 63.98)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(25.26, 36.1)]</t>
+          <t>[('0:00:03.100000', '0:00:05.580000'), ('0:00:00.500000', '0:00:03.900000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:19.420000', '0:01:26.020000'), ('0:00:27.360000', '0:00:34.920000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -528,677 +538,638 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4526315789473684</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.56, 32.44)]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(41.92, 59.04)]</t>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:02:15.687550', '0:02:19.228594')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(14.9, 28.9)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.36, 6.46)]</t>
+          <t>[('0:00:31.740000', '0:00:33.880000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:36.400000', '0:00:41.700000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'D:min/A', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (28.14, 36.1)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56), (2.36, 5.68)]</t>
+          <t>[('0:01:14.800000', '0:01:21.060000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.14, 30.18)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(41.92, 59.04)]</t>
+          <t>[('0:00:08.700000', '0:00:25.020000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(36.04, 51.46)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(9.6, 32.34)]</t>
+          <t>[('0:00:08.740000', '0:00:23.220000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(112.14, 117.46)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(107.1, 111.48)]</t>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(19.36, 22.38)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(8.34, 16.5)]</t>
+          <t>[('0:00:02.360000', '0:00:07.560000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:14.900000', '0:00:28.900000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (13.74, 22.56)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86), (0.78, 5.98)]</t>
+          <t>[('0:00:20.600000', '0:00:24.180000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:00.120000', '0:01:03.420000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1480769230769231</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'A'], ['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(43.926916, 50.765192), (28.450816, 36.229501)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(56.6, 61.46), (16.04, 22.4)]</t>
+          <t>[('0:00:02.580000', '0:00:16.360000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:08.660000', '0:01:19.220000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02)]</t>
+          <t>[('0:00:06.760000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:01.680000', '0:00:05.300000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46)]</t>
+          <t>[('0:00:14.760000', '0:01:42.460000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (15.6, 24.08)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06), (0.34, 4.84)]</t>
+          <t>[('0:00:00.680000', '0:00:10.700000'), ('0:01:25.700000', '0:01:34.320000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0)]</t>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(37.96, 44.8)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(8.3, 12.96)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
